--- a/Data/ArthurHeimCareerDataFr.xlsx
+++ b/Data/ArthurHeimCareerDataFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241C6756-1FA1-D246-A10F-1C90C82E8D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A1379-F124-DC48-BB51-B75C47EC8C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="3" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="292">
   <si>
     <t>Degree</t>
   </si>
@@ -961,6 +961,9 @@
   </si>
   <si>
     <t>Manipulation et visualisation de données ; économétrie, Machine learning</t>
+  </si>
+  <si>
+    <t>Paris School of Economics - EHESS, ED-465 Paris I, Panthéon Sorbonne</t>
   </si>
 </sst>
 </file>
@@ -1465,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464DC6A-27D2-7946-9BDF-A29EA65BBB42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1501,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>291</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -2315,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C18CEC3-D8CE-8244-8B3C-CC0F80A2D5E6}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3323,7 +3326,7 @@
       </c>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" ht="54">
+    <row r="9" spans="1:9" ht="102">
       <c r="A9" t="s">
         <v>194</v>
       </c>

--- a/Data/ArthurHeimCareerDataFr.xlsx
+++ b/Data/ArthurHeimCareerDataFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86A1379-F124-DC48-BB51-B75C47EC8C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6FECD8-C175-EF4E-848F-B217FF224424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="291">
   <si>
     <t>Degree</t>
   </si>
@@ -739,9 +739,6 @@
   </si>
   <si>
     <t>Avec Laudine Carbuccia, Carlo Barone et Coralie Chevalier</t>
-  </si>
-  <si>
-    <t>{\bf In review, Nature Human Behaviour}</t>
   </si>
   <si>
     <t>Réalisation de réplications d'Angrist et Lavy (ARE 2009) et de Behrman et al. (JPE 2015) pour le projet Multi 100, en examinant l'impact des choix des analystes sur les résultats de la recherche.</t>
@@ -1468,7 +1465,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464DC6A-27D2-7946-9BDF-A29EA65BBB42}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1498,24 +1495,24 @@
     </row>
     <row r="2" spans="1:5" ht="119">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1527,40 +1524,40 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B6">
         <v>2007</v>
@@ -1569,7 +1566,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1794,7 +1791,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -1855,7 +1852,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>66</v>
@@ -1871,12 +1868,12 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1891,18 +1888,18 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1911,18 +1908,18 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1931,7 +1928,7 @@
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -1986,10 +1983,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>32</v>
@@ -2001,7 +1998,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>17</v>
@@ -2012,7 +2009,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>147</v>
@@ -2027,7 +2024,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>17</v>
@@ -2038,10 +2035,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>32</v>
@@ -2062,7 +2059,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>147</v>
@@ -2086,10 +2083,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>32</v>
@@ -2163,10 +2160,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C2" t="s">
         <v>163</v>
@@ -2186,10 +2183,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B3" t="s">
         <v>256</v>
-      </c>
-      <c r="B3" t="s">
-        <v>257</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -2209,22 +2206,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>203</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2235,7 +2232,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
         <v>164</v>
@@ -2250,7 +2247,7 @@
         <v>200</v>
       </c>
       <c r="F5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2261,7 +2258,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
         <v>165</v>
@@ -2276,7 +2273,7 @@
         <v>200</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2347,7 +2344,7 @@
         <v>150</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2358,7 +2355,7 @@
         <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2369,7 +2366,7 @@
         <v>150</v>
       </c>
       <c r="C4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2380,7 +2377,7 @@
         <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2391,7 +2388,7 @@
         <v>153</v>
       </c>
       <c r="C6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2402,7 +2399,7 @@
         <v>155</v>
       </c>
       <c r="C7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2413,7 +2410,7 @@
         <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2871,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EF90B3-AE5D-E640-BB84-BA742FCD421F}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.83203125" defaultRowHeight="16"/>
@@ -3083,7 +3080,7 @@
         <v>118</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="E9" s="24">
         <v>2024</v>
@@ -3108,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3289,7 +3286,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>63</v>
@@ -3313,7 +3310,7 @@
         <v>209</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F8" s="24">
         <v>2026</v>
@@ -3338,13 +3335,13 @@
         <v>118</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>17</v>
@@ -3401,10 +3398,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C2" t="s">
         <v>175</v>
@@ -3416,21 +3413,21 @@
         <v>202</v>
       </c>
       <c r="F2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G2" t="s">
         <v>181</v>
       </c>
       <c r="H2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C3" t="s">
         <v>176</v>
@@ -3442,21 +3439,21 @@
         <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
         <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s">
         <v>177</v>
@@ -3468,7 +3465,7 @@
         <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G4" t="s">
         <v>181</v>
@@ -3479,10 +3476,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C5" t="s">
         <v>177</v>
@@ -3494,21 +3491,21 @@
         <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
         <v>180</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" t="s">
         <v>178</v>
@@ -3520,21 +3517,21 @@
         <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
         <v>180</v>
       </c>
       <c r="H6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
@@ -3546,7 +3543,7 @@
         <v>204</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G7" t="s">
         <v>180</v>
@@ -3557,10 +3554,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
         <v>207</v>
@@ -3572,21 +3569,21 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G8" t="s">
         <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
@@ -3598,13 +3595,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
         <v>181</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataFr.xlsx
+++ b/Data/ArthurHeimCareerDataFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6FECD8-C175-EF4E-848F-B217FF224424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA97AD52-2F46-9C4B-8786-DAC8F8531613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="9" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="296">
   <si>
     <t>Degree</t>
   </si>
@@ -961,6 +961,21 @@
   </si>
   <si>
     <t>Paris School of Economics - EHESS, ED-465 Paris I, Panthéon Sorbonne</t>
+  </si>
+  <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Conférence| AFEPOP 2025</t>
+  </si>
+  <si>
+    <t>Association française des économistes de la population</t>
+  </si>
+  <si>
+    <t>Jun 2024</t>
+  </si>
+  <si>
+    <t>Mai 2025</t>
   </si>
 </sst>
 </file>
@@ -1576,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89004A4C-135E-AE46-AB58-A9B77E14C3A4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1610,60 +1625,60 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>170</v>
+        <v>292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>113</v>
+        <v>166</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1671,19 +1686,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1691,16 +1706,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
         <v>106</v>
@@ -1711,19 +1726,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1731,19 +1746,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1751,19 +1766,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1771,47 +1786,67 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>108</v>
+      <c r="D10" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>88</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F11">
-    <sortCondition descending="1" ref="D3:D11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F12">
+    <sortCondition descending="1" ref="D4:D12"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3105,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>

--- a/Data/ArthurHeimCareerDataFr.xlsx
+++ b/Data/ArthurHeimCareerDataFr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA97AD52-2F46-9C4B-8786-DAC8F8531613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6171E7-0D48-3E48-98E3-25F9838FA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="9" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
@@ -334,45 +334,27 @@
     <t>LIEPP (Sciences Po)</t>
   </si>
   <si>
-    <t>Seminar on education policies</t>
-  </si>
-  <si>
     <t xml:space="preserve"> \it{École à 2 ans : Une maternelle plus précoce et plus longue améliore-t-elle la réussite des élèves ?}</t>
   </si>
   <si>
     <t xml:space="preserve"> OECD \&amp;  US institute for Education Sciences (IES)</t>
   </si>
   <si>
-    <t>International conference: Using educational research and innovation to address inequality and achievement gaps in education</t>
-  </si>
-  <si>
     <t>Association française de sciences économique \&amp; DG Trésor</t>
   </si>
   <si>
     <t xml:space="preserve"> \emph{Quand la scolarisation à 2 ans n'apporte pas les effets attendus : Analyse quasi-expérimentales à partir du panel 2007}</t>
   </si>
   <si>
-    <t>Evaluating public policies conference</t>
-  </si>
-  <si>
     <t>OECD</t>
   </si>
   <si>
     <t>Washington DC</t>
   </si>
   <si>
-    <t>OECD expert group:  ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
-  </si>
-  <si>
     <t>Paris I Sorbonne</t>
   </si>
   <si>
-    <t>Public economics seminar</t>
-  </si>
-  <si>
-    <t>\emph{J-PAL-IPP seminar}</t>
-  </si>
-  <si>
     <t>\emph{Rage against the matching}</t>
   </si>
   <si>
@@ -403,9 +385,6 @@
     <t>may 2024</t>
   </si>
   <si>
-    <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}, présenté à la réunion du groupe d'expert de l'OCDE ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
-  </si>
-  <si>
     <t>Collective</t>
   </si>
   <si>
@@ -536,9 +515,6 @@
   </si>
   <si>
     <t>\textsc{R}\xspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> \emph{Income support strategies to reduce inequalities : Insights from France}, International seminar on "Using educational research and innovation to address inequality and achievement gaps in education".</t>
   </si>
   <si>
     <t>\href{https://theses.fr/2024EHES0027}{\faExternalLink}</t>
@@ -933,9 +909,6 @@
     <t>Les inégalités scolaires d'origines sociales</t>
   </si>
   <si>
-    <t>Investissement social dans la jeunesse</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -966,9 +939,6 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t>Conférence| AFEPOP 2025</t>
-  </si>
-  <si>
     <t>Association française des économistes de la population</t>
   </si>
   <si>
@@ -976,6 +946,36 @@
   </si>
   <si>
     <t>Mai 2025</t>
+  </si>
+  <si>
+    <t>Conférence | AFEPOP 2025</t>
+  </si>
+  <si>
+    <t>Seminar | J-pal \&amp; IPP</t>
+  </si>
+  <si>
+    <t>Seminar | Public economics</t>
+  </si>
+  <si>
+    <t>OECD expert group |  ‘What standards of evidence are needed for policy design, implementation and evaluation’</t>
+  </si>
+  <si>
+    <t>International conference | Using educational research and innovation to address inequality and achievement gaps in education</t>
+  </si>
+  <si>
+    <t>Conference | Evaluating public policies</t>
+  </si>
+  <si>
+    <t>Seminar | education policies</t>
+  </si>
+  <si>
+    <t>Conférence | Social investment for the youths</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> \emph{Income support strategies to reduce inequalities : Insights from France}</t>
+  </si>
+  <si>
+    <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}</t>
   </si>
 </sst>
 </file>
@@ -1510,24 +1510,24 @@
     </row>
     <row r="2" spans="1:5" ht="119">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1539,40 +1539,40 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B6">
         <v>2007</v>
@@ -1581,7 +1581,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1594,7 +1594,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1625,19 +1625,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -1645,19 +1645,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>17</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
         <v>90</v>
@@ -1695,10 +1695,10 @@
         <v>89</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1715,10 +1715,10 @@
         <v>89</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1726,19 +1726,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>89</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F7" t="s">
         <v>17</v>
@@ -1746,19 +1746,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1766,19 +1766,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>294</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1786,19 +1786,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>89</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1806,7 +1806,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
@@ -1815,10 +1815,10 @@
         <v>89</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -1835,7 +1835,7 @@
         <v>89</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
         <v>88</v>
@@ -1887,28 +1887,28 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1923,18 +1923,18 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1943,18 +1943,18 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1963,7 +1963,7 @@
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2018,22 +2018,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>17</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>32</v>
@@ -2059,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>17</v>
@@ -2070,10 +2070,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>32</v>
@@ -2094,10 +2094,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>32</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>32</v>
@@ -2195,19 +2195,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -2218,19 +2218,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2241,22 +2241,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2267,22 +2267,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2293,22 +2293,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2362,90 +2362,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2465,189 +2465,189 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
         <v>131</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
         <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2721,7 +2721,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1">
@@ -2747,7 +2747,7 @@
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1">
@@ -2770,7 +2770,7 @@
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="24" customHeight="1">
@@ -2790,13 +2790,13 @@
         <v>2024</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="24" customHeight="1">
@@ -2810,7 +2810,7 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E6">
         <v>2024</v>
@@ -2870,19 +2870,19 @@
     </row>
     <row r="9" spans="1:8" ht="24" customHeight="1">
       <c r="B9" s="16" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>2024</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2945,7 +2945,7 @@
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E2" s="24">
         <v>2024</v>
@@ -2957,7 +2957,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="85">
@@ -2977,13 +2977,13 @@
         <v>2024</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="24" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="119">
@@ -3007,7 +3007,7 @@
         <v>17</v>
       </c>
       <c r="H4" s="24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="221">
@@ -3027,25 +3027,25 @@
         <v>2024</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="221">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E6" s="24">
         <v>2024</v>
@@ -3109,19 +3109,19 @@
     <row r="9" spans="1:8" ht="153">
       <c r="A9" s="24"/>
       <c r="B9" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E9" s="24">
         <v>2024</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G9" s="24" t="s">
         <v>17</v>
@@ -3148,7 +3148,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>52</v>
@@ -3177,133 +3177,133 @@
     </row>
     <row r="2" spans="1:9" ht="136">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F2" s="24">
         <v>2024</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="306">
       <c r="A3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F3" s="24">
         <v>2024</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="170">
       <c r="A4" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F4" s="24">
         <v>2024</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="272">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F5" s="24">
         <v>2024</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="204">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F6" s="24">
         <v>2024</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>17</v>
@@ -3321,7 +3321,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>63</v>
@@ -3342,10 +3342,10 @@
         <v>85</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="F8" s="24">
         <v>2026</v>
@@ -3360,23 +3360,23 @@
     </row>
     <row r="9" spans="1:9" ht="102">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="26" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>17</v>
@@ -3407,7 +3407,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -3428,82 +3428,82 @@
         <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F2" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F3" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H3" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -3511,77 +3511,77 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
+        <v>226</v>
+      </c>
+      <c r="G5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
         <v>234</v>
-      </c>
-      <c r="G5" t="s">
-        <v>180</v>
-      </c>
-      <c r="H5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C6" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" t="s">
         <v>237</v>
-      </c>
-      <c r="G6" t="s">
-        <v>180</v>
-      </c>
-      <c r="H6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -3589,13 +3589,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3604,24 +3604,24 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+      <c r="H8" t="s">
         <v>235</v>
-      </c>
-      <c r="G8" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -3630,13 +3630,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
+        <v>228</v>
+      </c>
+      <c r="G9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" t="s">
         <v>236</v>
-      </c>
-      <c r="G9" t="s">
-        <v>181</v>
-      </c>
-      <c r="H9" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataFr.xlsx
+++ b/Data/ArthurHeimCareerDataFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6171E7-0D48-3E48-98E3-25F9838FA755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCA880-D673-C64B-9787-FE5AED50F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="9" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="2" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="297">
   <si>
     <t>Degree</t>
   </si>
@@ -529,12 +529,6 @@
     <t>Cnaf - HCFEA - France Stratégie</t>
   </si>
   <si>
-    <t>IGPDE</t>
-  </si>
-  <si>
-    <t>EN3S</t>
-  </si>
-  <si>
     <t>Research Workshop | Training and support for the long-term unemployed</t>
   </si>
   <si>
@@ -816,9 +810,6 @@
     <t>\href{https://www.cnesco.fr/}{Conseil national d'évaluation du système scolaire (Cnesco)}</t>
   </si>
   <si>
-    <t>INET</t>
-  </si>
-  <si>
     <t>Séminaires 'Premiers Pas'</t>
   </si>
   <si>
@@ -909,9 +900,6 @@
     <t>Les inégalités scolaires d'origines sociales</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Recherche reproductible, intégration avec \LaTeX, présentations, sites web</t>
   </si>
   <si>
@@ -976,6 +964,21 @@
   </si>
   <si>
     <t>\emph{Demand for international standards of evidence : thoughts from a French perspective}</t>
+  </si>
+  <si>
+    <t>Institut national des études teritoriales (INET)</t>
+  </si>
+  <si>
+    <t>Institut de la gestion publique et du développement économique (IGPDE)</t>
+  </si>
+  <si>
+    <t>École nationale supérieure de la sécurité sociale (EN3S)</t>
+  </si>
+  <si>
+    <t>Conduire l’évaluation des effets de la stratégie nationale de prévention et de lutte contre la pauvreté, sous la présidence de Louis Schweitzer.</t>
+  </si>
+  <si>
+    <t>Proposer des actions relevant de politiques publiques centrées sur le développement, l’épanouissement et les acquisitions du jeune enfant.</t>
   </si>
 </sst>
 </file>
@@ -1510,24 +1513,24 @@
     </row>
     <row r="2" spans="1:5" ht="119">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1539,40 +1542,40 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6">
         <v>2007</v>
@@ -1581,7 +1584,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89004A4C-135E-AE46-AB58-A9B77E14C3A4}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1625,16 +1628,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
         <v>100</v>
@@ -1645,16 +1648,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>160</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>162</v>
       </c>
       <c r="E3" t="s">
         <v>99</v>
@@ -1675,7 +1678,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -1706,7 +1709,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1726,7 +1729,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -1746,7 +1749,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
@@ -1758,7 +1761,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1766,7 +1769,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -1778,7 +1781,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1786,7 +1789,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -1806,7 +1809,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
@@ -1826,7 +1829,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -1887,7 +1890,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>66</v>
@@ -1903,12 +1906,12 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1923,18 +1926,18 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="B4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" t="s">
         <v>249</v>
-      </c>
-      <c r="B4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C4" t="s">
-        <v>252</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1943,18 +1946,18 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1963,7 +1966,7 @@
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2018,10 +2021,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>32</v>
@@ -2033,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>17</v>
@@ -2044,7 +2047,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>140</v>
@@ -2059,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>17</v>
@@ -2070,10 +2073,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>32</v>
@@ -2094,7 +2097,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>140</v>
@@ -2118,10 +2121,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>32</v>
@@ -2161,8 +2164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8740F03-494A-C94E-AF3E-269AA0D15B6B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2195,19 +2198,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>257</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>190</v>
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>260</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -2218,19 +2224,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
+      </c>
+      <c r="F3" t="s">
+        <v>296</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2241,22 +2250,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C4" t="s">
-        <v>260</v>
+        <v>87</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2267,22 +2276,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
-        <v>156</v>
+        <v>293</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2293,22 +2302,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>294</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2379,18 +2388,18 @@
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s">
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2401,7 +2410,7 @@
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2412,18 +2421,18 @@
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2434,7 +2443,7 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2445,7 +2454,7 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2810,7 +2819,7 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6">
         <v>2024</v>
@@ -2945,7 +2954,7 @@
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E2" s="24">
         <v>2024</v>
@@ -2977,7 +2986,7 @@
         <v>2024</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G3" s="24" t="s">
         <v>17</v>
@@ -3027,7 +3036,7 @@
         <v>2024</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G5" s="24" t="s">
         <v>17</v>
@@ -3039,13 +3048,13 @@
     <row r="6" spans="1:8" ht="221">
       <c r="A6" s="24"/>
       <c r="B6" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E6" s="24">
         <v>2024</v>
@@ -3115,7 +3124,7 @@
         <v>111</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E9" s="24">
         <v>2024</v>
@@ -3148,7 +3157,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17">
       <c r="A1" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>52</v>
@@ -3177,23 +3186,23 @@
     </row>
     <row r="2" spans="1:9" ht="136">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="24"/>
       <c r="C2" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F2" s="24">
         <v>2024</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H2" s="24" t="s">
         <v>17</v>
@@ -3204,52 +3213,52 @@
     </row>
     <row r="3" spans="1:9" ht="306">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F3" s="24">
         <v>2024</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="170">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F4" s="24">
         <v>2024</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>17</v>
@@ -3260,23 +3269,23 @@
     </row>
     <row r="5" spans="1:9" ht="272">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F5" s="24">
         <v>2024</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>17</v>
@@ -3287,23 +3296,23 @@
     </row>
     <row r="6" spans="1:9" ht="204">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F6" s="24">
         <v>2024</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>17</v>
@@ -3321,7 +3330,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>63</v>
@@ -3342,10 +3351,10 @@
         <v>85</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F8" s="24">
         <v>2026</v>
@@ -3360,7 +3369,7 @@
     </row>
     <row r="9" spans="1:9" ht="102">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="26" t="s">
@@ -3370,13 +3379,13 @@
         <v>111</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>17</v>
@@ -3407,7 +3416,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -3428,82 +3437,82 @@
         <v>15</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -3511,77 +3520,77 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G6" t="s">
         <v>170</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" t="s">
-        <v>172</v>
-      </c>
       <c r="H6" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G7" t="s">
         <v>170</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>196</v>
-      </c>
-      <c r="F7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G7" t="s">
-        <v>172</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -3589,13 +3598,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D8">
         <v>2013</v>
@@ -3604,24 +3613,24 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9">
         <v>2014</v>
@@ -3630,13 +3639,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Data/ArthurHeimCareerDataFr.xlsx
+++ b/Data/ArthurHeimCareerDataFr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurheim/Library/CloudStorage/Dropbox/Travail_encrypted_decrypted/PHD/career/Data_DrivenResume/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FCA880-D673-C64B-9787-FE5AED50F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951695AC-5611-0A48-8089-66ACEF6FB614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="2" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
+    <workbookView xWindow="4700" yWindow="3200" windowWidth="27240" windowHeight="19200" activeTab="7" xr2:uid="{65AA7443-0872-B84D-B38F-A133D7C4ED29}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="299">
   <si>
     <t>Degree</t>
   </si>
@@ -686,12 +686,6 @@
 \\ \href{https://www.dropbox.com/scl/fi/4pvg0chbiwtevwiil5re5/RATM_EN092024.pdf?rlkey=o67gk9trd2pqof8jh6mjjpbz7&amp;dl=0}{Slides: \faExternalLink}</t>
   </si>
   <si>
-    <t>\bf{R \&amp; R} European Economic Review</t>
-  </si>
-  <si>
-    <t>\bf{R \&amp; R} Nature Human Behaviour</t>
-  </si>
-  <si>
     <t>Evaluation de Reliance: Éxpérimentation aléatoire d'un programme d'activation intensif à destination des familles monoparentales au RSA longue durée. Mesure des effets sur l'emploi et les revenus
 \\ \href{https://osf.io/qhazf/}{Pre-print and replication material: \faExternalLink}</t>
   </si>
@@ -979,6 +973,18 @@
   </si>
   <si>
     <t>Proposer des actions relevant de politiques publiques centrées sur le développement, l’épanouissement et les acquisitions du jeune enfant.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nature Human Behaviour</t>
+  </si>
+  <si>
+    <t>{\bf Forthcoming}</t>
+  </si>
+  <si>
+    <t>{\bf R \&amp; R} European Economic Review</t>
+  </si>
+  <si>
+    <t>{\bf R \&amp; R} Nature Human Behaviour</t>
   </si>
 </sst>
 </file>
@@ -1513,24 +1519,24 @@
     </row>
     <row r="2" spans="1:5" ht="119">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="51">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1542,40 +1548,40 @@
         <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6">
         <v>2007</v>
@@ -1584,7 +1590,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -1628,16 +1634,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>279</v>
-      </c>
-      <c r="C2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>281</v>
       </c>
       <c r="E2" t="s">
         <v>100</v>
@@ -1678,7 +1684,7 @@
         <v>89</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
         <v>98</v>
@@ -1709,7 +1715,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>97</v>
@@ -1749,7 +1755,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>95</v>
@@ -1761,7 +1767,7 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
         <v>17</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
@@ -1781,7 +1787,7 @@
         <v>103</v>
       </c>
       <c r="E9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1789,7 +1795,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B10" t="s">
         <v>93</v>
@@ -1809,7 +1815,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>90</v>
@@ -1829,7 +1835,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B12" t="s">
         <v>87</v>
@@ -1890,7 +1896,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>66</v>
@@ -1906,12 +1912,12 @@
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -1926,18 +1932,18 @@
         <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="18" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" t="s">
         <v>70</v>
@@ -1946,18 +1952,18 @@
         <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" t="s">
         <v>246</v>
-      </c>
-      <c r="B5" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" t="s">
-        <v>248</v>
       </c>
       <c r="D5" t="s">
         <v>72</v>
@@ -1966,7 +1972,7 @@
         <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2021,10 +2027,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>32</v>
@@ -2036,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>17</v>
@@ -2047,7 +2053,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>140</v>
@@ -2062,7 +2068,7 @@
         <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>17</v>
@@ -2073,10 +2079,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>32</v>
@@ -2097,7 +2103,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>140</v>
@@ -2121,10 +2127,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>32</v>
@@ -2164,7 +2170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8740F03-494A-C94E-AF3E-269AA0D15B6B}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2198,13 +2204,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>193</v>
@@ -2213,7 +2219,7 @@
         <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -2224,10 +2230,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
         <v>155</v>
@@ -2239,7 +2245,7 @@
         <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
@@ -2250,10 +2256,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -2265,7 +2271,7 @@
         <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -2276,10 +2282,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C5" t="s">
         <v>89</v>
@@ -2291,7 +2297,7 @@
         <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -2302,10 +2308,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -2317,7 +2323,7 @@
         <v>139</v>
       </c>
       <c r="F6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G6" t="s">
         <v>17</v>
@@ -2388,7 +2394,7 @@
         <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2399,7 +2405,7 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -2410,7 +2416,7 @@
         <v>143</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2421,7 +2427,7 @@
         <v>146</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2432,7 +2438,7 @@
         <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -2443,7 +2449,7 @@
         <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2454,7 +2460,7 @@
         <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3149,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C8C5BE-4484-E84F-BDDE-C414E19C95A4}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.6640625" defaultRowHeight="16"/>
@@ -3252,13 +3258,13 @@
         <v>186</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>202</v>
+        <v>297</v>
       </c>
       <c r="F4" s="24">
         <v>2024</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>17</v>
@@ -3276,7 +3282,7 @@
         <v>183</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>200</v>
@@ -3285,7 +3291,7 @@
         <v>2024</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>17</v>
@@ -3303,16 +3309,16 @@
         <v>162</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>203</v>
-      </c>
-      <c r="F6" s="24">
-        <v>2024</v>
+        <v>295</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>296</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H6" s="24" t="s">
         <v>17</v>
@@ -3330,7 +3336,7 @@
         <v>77</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>63</v>
@@ -3354,7 +3360,7 @@
         <v>199</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F8" s="24">
         <v>2026</v>
@@ -3379,13 +3385,13 @@
         <v>111</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>203</v>
+        <v>298</v>
       </c>
       <c r="F9" s="24">
         <v>2024</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>17</v>
@@ -3442,10 +3448,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -3457,21 +3463,21 @@
         <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
         <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C3" t="s">
         <v>166</v>
@@ -3483,21 +3489,21 @@
         <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C4" t="s">
         <v>167</v>
@@ -3509,7 +3515,7 @@
         <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
         <v>171</v>
@@ -3520,10 +3526,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
         <v>167</v>
@@ -3535,21 +3541,21 @@
         <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G5" t="s">
         <v>170</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" t="s">
         <v>168</v>
@@ -3561,21 +3567,21 @@
         <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G6" t="s">
         <v>170</v>
       </c>
       <c r="H6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C7" t="s">
         <v>168</v>
@@ -3587,7 +3593,7 @@
         <v>194</v>
       </c>
       <c r="F7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
         <v>170</v>
@@ -3598,10 +3604,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C8" t="s">
         <v>197</v>
@@ -3613,21 +3619,21 @@
         <v>2014</v>
       </c>
       <c r="F8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G8" t="s">
         <v>171</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C9" t="s">
         <v>168</v>
@@ -3639,13 +3645,13 @@
         <v>2016</v>
       </c>
       <c r="F9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G9" t="s">
         <v>171</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
